--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +818,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +865,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1049,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1096,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1280,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1327,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1482,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1529,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1689,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1736,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1782,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1915,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1962,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2175,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2222,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2781,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2828,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3214,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3261,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3392,10 +3416,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3439,28 +3463,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3485,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3618,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3641,28 +3665,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3854,10 +3878,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3901,28 +3925,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3947,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4085,10 +4109,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4132,28 +4156,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4178,28 +4202,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4311,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4334,28 +4358,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4489,10 +4513,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4536,28 +4560,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4582,28 +4606,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4715,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4762,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4808,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4917,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4940,28 +4964,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +5010,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5124,10 +5148,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5171,28 +5195,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5217,28 +5241,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5326,10 +5350,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5373,28 +5397,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5419,28 +5443,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5528,10 +5552,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5575,28 +5599,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5621,28 +5645,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5759,10 +5783,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5806,28 +5830,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5852,28 +5876,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5961,10 +5985,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6008,28 +6032,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6054,28 +6078,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6192,10 +6216,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6239,28 +6263,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6285,28 +6309,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6394,10 +6418,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6441,28 +6465,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6487,28 +6511,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6625,10 +6649,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6672,28 +6696,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6718,28 +6742,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6914,10 +6938,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6961,28 +6985,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7007,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7116,10 +7140,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7163,28 +7187,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7209,28 +7233,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7371,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7418,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7573,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7596,28 +7620,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7666,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7775,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7822,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7868,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7982,10 +8006,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8029,28 +8053,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8075,28 +8099,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8184,10 +8208,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8231,28 +8255,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8277,28 +8301,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8386,10 +8410,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8433,28 +8457,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8479,28 +8503,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8612,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8635,28 +8659,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8814,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8837,28 +8861,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8907,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8987,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
